--- a/src/test/resources/testData.xlsx
+++ b/src/test/resources/testData.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+  <si>
+    <t xml:space="preserve">PositiveTestData:</t>
+  </si>
   <si>
     <t xml:space="preserve">someFile</t>
   </si>
@@ -47,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">+++::::::</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NegateveTestData:</t>
   </si>
   <si>
     <t xml:space="preserve">testFile205</t>
@@ -74,11 +80,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -95,13 +102,38 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF76FF7A"/>
+        <bgColor rgb="FF99CC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7676"/>
+        <bgColor rgb="FFFF99CC"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -138,8 +170,28 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -152,6 +204,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF7676"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF76FF7A"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -160,90 +272,188 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:AP8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="n">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+    </row>
+    <row r="2" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <v>376454</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+      <c r="Z5" s="3"/>
+      <c r="AA5" s="3"/>
+      <c r="AB5" s="3"/>
+      <c r="AC5" s="3"/>
+      <c r="AD5" s="3"/>
+      <c r="AE5" s="3"/>
+      <c r="AF5" s="3"/>
+      <c r="AG5" s="3"/>
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+      <c r="AK5" s="3"/>
+      <c r="AL5" s="3"/>
+      <c r="AM5" s="3"/>
+      <c r="AN5" s="3"/>
+      <c r="AO5" s="3"/>
+      <c r="AP5" s="3"/>
+    </row>
+    <row r="6" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>14</v>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:AP1"/>
+    <mergeCell ref="A5:AP5"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
